--- a/medicine/Enfance/Claudie_Guyennon-Duchêne/Claudie_Guyennon-Duchêne.xlsx
+++ b/medicine/Enfance/Claudie_Guyennon-Duchêne/Claudie_Guyennon-Duchêne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Claudie_Guyennon-Duch%C3%AAne</t>
+          <t>Claudie_Guyennon-Duchêne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claudie Guyennon-Duchêne est une illustratrice française dans la presse et dans l'édition. Elle est née à Lyon le 27 février 1964[1],[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claudie Guyennon-Duchêne est une illustratrice française dans la presse et dans l'édition. Elle est née à Lyon le 27 février 1964.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Claudie_Guyennon-Duch%C3%AAne</t>
+          <t>Claudie_Guyennon-Duchêne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a obtenu le Diplôme national supérieur d'expression plastique, option communication, de l'École nationale supérieure des beaux-arts de Lyon en 1992 avec les félicitations du Jury.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Claudie_Guyennon-Duch%C3%AAne</t>
+          <t>Claudie_Guyennon-Duchêne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Inspiration et techniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a une prédilection pour les carnets de voyages, les livres-objets, les maternités, l'enfance. Elle a rapporté de nombreux carnets de voyages de ses séjours en Italie, Inde ou Afrique. Ses techniques oscillent entre sculpture textile, eau-forte, collagraphie, monotype, broderie, feutre, collage, peinture. Ses œuvres ont été exposées plus d'une quinzaine de fois[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a une prédilection pour les carnets de voyages, les livres-objets, les maternités, l'enfance. Elle a rapporté de nombreux carnets de voyages de ses séjours en Italie, Inde ou Afrique. Ses techniques oscillent entre sculpture textile, eau-forte, collagraphie, monotype, broderie, feutre, collage, peinture. Ses œuvres ont été exposées plus d'une quinzaine de fois.
 </t>
         </is>
       </c>
